--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11745" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>####</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -441,7 +457,7 @@
     <col min="3" max="3" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,13 +474,19 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -480,10 +502,16 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -90,11 +90,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>####</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectValidation()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/RegisterValidateUsernameExist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +91,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectValidation()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +448,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -465,25 +465,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -491,28 +491,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
